--- a/medicine/Mort/Cimetière_britannique_de_Montevideo/Cimetière_britannique_de_Montevideo.xlsx
+++ b/medicine/Mort/Cimetière_britannique_de_Montevideo/Cimetière_britannique_de_Montevideo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_britannique_de_Montevideo</t>
+          <t>Cimetière_britannique_de_Montevideo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière britannique de Montevideo (en anglais : British Cemetery of Montevideo ; en espagnol : Cementerio británico de Montevideo) est l'un des plus importants cimetières de l'Uruguay.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_britannique_de_Montevideo</t>
+          <t>Cimetière_britannique_de_Montevideo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terrain appartenait au père Manuel Salinas, un Portugais qui était chargé de son administration lors de la colonisation portugaise de l'Uruguay, alors nommée province cisplatine. En 1825, lorsque l'Uruguay se sépara de l'empire du Brésil et proclama son indépendance, Salinas vendit les droits de propriété à John Hall pour la somme de 400 dollars (en monnaie de l'époque)[1].
-En 1828, Thomas Samuel Hood acheta le cimetière au nom de la communauté anglophone présente en Uruguay. Cependant, la croissance rapide de la ville provoqua, sous l'influence du mouvement de planification urbaine, son transfert vers le quartier du Buceo, depuis son emplacement d'origine Avenue 18 de Julio, dans le centre-ville de Montevideo. Le président, Máximo Santos, adopta un décret ordonnant le transfert du cimetière et une compensation pour les familles anglaises. À cette époque, le cimetière était connu comme « le cimetière des Anglais »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terrain appartenait au père Manuel Salinas, un Portugais qui était chargé de son administration lors de la colonisation portugaise de l'Uruguay, alors nommée province cisplatine. En 1825, lorsque l'Uruguay se sépara de l'empire du Brésil et proclama son indépendance, Salinas vendit les droits de propriété à John Hall pour la somme de 400 dollars (en monnaie de l'époque).
+En 1828, Thomas Samuel Hood acheta le cimetière au nom de la communauté anglophone présente en Uruguay. Cependant, la croissance rapide de la ville provoqua, sous l'influence du mouvement de planification urbaine, son transfert vers le quartier du Buceo, depuis son emplacement d'origine Avenue 18 de Julio, dans le centre-ville de Montevideo. Le président, Máximo Santos, adopta un décret ordonnant le transfert du cimetière et une compensation pour les familles anglaises. À cette époque, le cimetière était connu comme « le cimetière des Anglais ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_britannique_de_Montevideo</t>
+          <t>Cimetière_britannique_de_Montevideo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Célébrités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Certains des membres qui ont été enterrés dans ce cimetière étaient d'origine britannique ou allemande. Il y a aussi les restes de certains Uruguayens comme Julio María Sosa, ancien président du Club Atlético Peñarol.
 Charles John Ayre (1905), consul britannique à Montevideo.
@@ -562,14 +578,14 @@
 Samuel Fisher Lafone (1805-1871).
 Thomas Frederick Lane (1859-1946).
 Samuel Hill Lawrence (1831-1868), capitaine irlandais.
-Henry C. Lichtenberger (1873-1934), fondateur de l'Albion Football Club[3].
+Henry C. Lichtenberger (1873-1934), fondateur de l'Albion Football Club.
 William Charles McClew (1998), président de la Société du Cimetière britannique.
 Allan McDonald (1883-1929), consul britannique à Montevideo.
 Major John Munro (1878), consul britannique à Montevideo.
 John Oldham (1836-1910), président de la réseau télégraphique.
 Jorge Enrique Sanderson (1881-1963), fondateur, footballeur et président du Montevideo Wanderers Fútbol Club.
 Armonía Somers (1914-1994), écrivaine uruguayenne.
-Juan Storm (1927-1995), artiste uruguayen[4].
+Juan Storm (1927-1995), artiste uruguayen.
 Thomas Tomkinson (1904-1979), homme d'affaires britannique.</t>
         </is>
       </c>
